--- a/ICON16x16.xlsx
+++ b/ICON16x16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\work\Sipeed_Longan_Nano_Projects\gd32v_i2s_dac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E77872-0759-4F59-A9F0-271B26DDA699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BAFC4D-B939-434F-BE7C-F5B2C9A30426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="345" windowWidth="25110" windowHeight="15255" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F949ED-4E88-4139-A003-24C46D6923AF}">
   <dimension ref="J12:AI135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="AI30" t="str">
         <f>"0x"&amp;AE30&amp;",0x"&amp;AF30&amp;",0x"&amp;AE31&amp;",0x"&amp;AF31&amp;",0x"&amp;AE32&amp;",0x"&amp;AF32&amp;",0x"&amp;AE33&amp;",0x"&amp;AF33&amp;",0x"&amp;AE34&amp;",0x"&amp;AF34&amp;",0x"&amp;AE35&amp;",0x"&amp;AF35&amp;",0x"&amp;AE36&amp;",0x"&amp;AF36&amp;",0x"&amp;AE37&amp;",0x"&amp;AF37</f>
-        <v>0x00,0x00,0x00,0x00,0x00,0x00,0x04,0x00,0x24,0x08,0x54,0x14,0x64,0x18,0x84,0x00</v>
+        <v>0x00,0x00,0xF0,0x01,0xF8,0x07,0xFC,0x0F,0xAC,0x1E,0x06,0x1C,0x12,0x39,0x42,0x38</v>
       </c>
     </row>
     <row r="31" spans="10:35" x14ac:dyDescent="0.4">
@@ -1075,11 +1075,21 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="N31" s="10">
+        <v>1</v>
+      </c>
+      <c r="O31" s="10">
+        <v>1</v>
+      </c>
+      <c r="P31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1</v>
+      </c>
+      <c r="R31" s="10">
+        <v>1</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -1089,29 +1099,45 @@
       <c r="Y31" s="6"/>
       <c r="AE31" t="str">
         <f t="shared" ref="AE31:AE45" si="2">DEC2HEX(J31*1+K31*2+L31*4+M31*8+N31*16+O31*32+P31*64+Q31*128, 2)</f>
-        <v>00</v>
+        <v>F0</v>
       </c>
       <c r="AF31" t="str">
         <f t="shared" ref="AF31:AF45" si="3">DEC2HEX(R31*1+S31*2+T31*4+U31*8+V31*16+W31*32+X31*64+Y31*128, 2)</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="AI31" t="str">
         <f>"0x"&amp;AE38&amp;",0x"&amp;AF38&amp;",0x"&amp;AE39&amp;",0x"&amp;AF39&amp;",0x"&amp;AE40&amp;",0x"&amp;AF40&amp;",0x"&amp;AE41&amp;",0x"&amp;AF41&amp;",0x"&amp;AE42&amp;",0x"&amp;AF42&amp;",0x"&amp;AE43&amp;",0x"&amp;AF43&amp;",0x"&amp;AE44&amp;",0x"&amp;AF44&amp;",0x"&amp;AE45&amp;",0x"&amp;AF45</f>
-        <v>0x84,0x01,0x04,0x00,0x04,0x08,0xC4,0x07,0x08,0x00,0x10,0x00,0xE0,0x0F,0x00,0x00</v>
+        <v>0x02,0x78,0x84,0x7C,0xE4,0x7C,0x08,0x3A,0x10,0x71,0x1C,0x27,0xFA,0x0B,0x00,0x00</v>
       </c>
     </row>
     <row r="32" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="M32" s="10">
+        <v>1</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
+        <v>1</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -1119,11 +1145,11 @@
       <c r="Y32" s="6"/>
       <c r="AE32" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>F8</v>
       </c>
       <c r="AF32" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>07</v>
       </c>
     </row>
     <row r="33" spans="10:35" x14ac:dyDescent="0.4">
@@ -1132,26 +1158,44 @@
       <c r="L33" s="10">
         <v>1</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
+        <v>1</v>
+      </c>
+      <c r="P33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>1</v>
+      </c>
+      <c r="R33" s="10">
+        <v>1</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1</v>
+      </c>
+      <c r="T33" s="10">
+        <v>1</v>
+      </c>
+      <c r="U33" s="10">
+        <v>1</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="6"/>
       <c r="AE33" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
+        <v>FC</v>
       </c>
       <c r="AF33" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>0F</v>
       </c>
     </row>
     <row r="34" spans="10:35" x14ac:dyDescent="0.4">
@@ -1160,53 +1204,63 @@
       <c r="L34" s="10">
         <v>1</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="10">
         <v>1</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="10">
+        <v>1</v>
+      </c>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="S34" s="10">
+        <v>1</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1</v>
+      </c>
       <c r="U34" s="10">
         <v>1</v>
       </c>
-      <c r="V34" s="1"/>
+      <c r="V34" s="10">
+        <v>1</v>
+      </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="6"/>
       <c r="AE34" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>AC</v>
       </c>
       <c r="AF34" t="str">
         <f t="shared" si="3"/>
-        <v>08</v>
+        <v>1E</v>
       </c>
     </row>
     <row r="35" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J35" s="5"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
       <c r="L35" s="10">
         <v>1</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="10">
-        <v>1</v>
-      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="10">
-        <v>1</v>
-      </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="10">
         <v>1</v>
       </c>
-      <c r="U35" s="1"/>
+      <c r="U35" s="10">
+        <v>1</v>
+      </c>
       <c r="V35" s="10">
         <v>1</v>
       </c>
@@ -1215,29 +1269,29 @@
       <c r="Y35" s="6"/>
       <c r="AE35" t="str">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>06</v>
       </c>
       <c r="AF35" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>1C</v>
       </c>
     </row>
     <row r="36" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J36" s="5"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="10">
-        <v>1</v>
-      </c>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="R36" s="10">
+        <v>1</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="10">
@@ -1246,78 +1300,90 @@
       <c r="V36" s="10">
         <v>1</v>
       </c>
-      <c r="W36" s="1"/>
+      <c r="W36" s="10">
+        <v>1</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="6"/>
       <c r="AE36" t="str">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J37" s="5"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="10">
-        <v>1</v>
-      </c>
+      <c r="P37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="U37" s="10">
+        <v>1</v>
+      </c>
+      <c r="V37" s="10">
+        <v>1</v>
+      </c>
+      <c r="W37" s="10">
+        <v>1</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="6"/>
       <c r="AE37" t="str">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AF37" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J38" s="5"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="10">
-        <v>1</v>
-      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="10">
-        <v>1</v>
-      </c>
-      <c r="R38" s="10">
-        <v>1</v>
-      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
+      <c r="U38" s="10">
+        <v>1</v>
+      </c>
+      <c r="V38" s="10">
+        <v>1</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10">
+        <v>1</v>
+      </c>
       <c r="Y38" s="6"/>
       <c r="AE38" t="str">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>02</v>
       </c>
       <c r="AF38" t="str">
         <f t="shared" si="3"/>
-        <v>01</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="10:35" x14ac:dyDescent="0.4">
@@ -1330,22 +1396,34 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="10">
+        <v>1</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="T39" s="10">
+        <v>1</v>
+      </c>
+      <c r="U39" s="10">
+        <v>1</v>
+      </c>
+      <c r="V39" s="10">
+        <v>1</v>
+      </c>
+      <c r="W39" s="10">
+        <v>1</v>
+      </c>
+      <c r="X39" s="10">
+        <v>1</v>
+      </c>
       <c r="Y39" s="6"/>
       <c r="AE39" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
+        <v>84</v>
       </c>
       <c r="AF39" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>7C</v>
       </c>
     </row>
     <row r="40" spans="10:35" x14ac:dyDescent="0.4">
@@ -1355,129 +1433,166 @@
         <v>1</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="O40" s="10">
+        <v>1</v>
+      </c>
+      <c r="P40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
+      <c r="T40" s="10">
+        <v>1</v>
+      </c>
       <c r="U40" s="10">
         <v>1</v>
       </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
+      <c r="V40" s="10">
+        <v>1</v>
+      </c>
+      <c r="W40" s="10">
+        <v>1</v>
+      </c>
+      <c r="X40" s="10">
+        <v>1</v>
+      </c>
       <c r="Y40" s="6"/>
       <c r="AE40" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
+        <v>E4</v>
       </c>
       <c r="AF40" t="str">
         <f t="shared" si="3"/>
-        <v>08</v>
+        <v>7C</v>
       </c>
     </row>
     <row r="41" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J41" s="5"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="10">
+        <v>1</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>1</v>
-      </c>
-      <c r="R41" s="10">
-        <v>1</v>
-      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
       <c r="S41" s="10">
         <v>1</v>
       </c>
-      <c r="T41" s="10">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="10">
+        <v>1</v>
+      </c>
+      <c r="V41" s="10">
+        <v>1</v>
+      </c>
+      <c r="W41" s="10">
+        <v>1</v>
+      </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="6"/>
       <c r="AE41" t="str">
         <f t="shared" si="2"/>
-        <v>C4</v>
+        <v>08</v>
       </c>
       <c r="AF41" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="42" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="10">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="10">
+        <v>1</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="R42" s="10">
+        <v>1</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
+      <c r="V42" s="10">
+        <v>1</v>
+      </c>
+      <c r="W42" s="10">
+        <v>1</v>
+      </c>
+      <c r="X42" s="10">
+        <v>1</v>
+      </c>
       <c r="Y42" s="6"/>
       <c r="AE42" t="str">
         <f t="shared" si="2"/>
-        <v>08</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J43" s="5"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
       <c r="N43" s="10">
         <v>1</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="10">
+        <v>1</v>
+      </c>
+      <c r="S43" s="10">
+        <v>1</v>
+      </c>
+      <c r="T43" s="10">
+        <v>1</v>
+      </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+      <c r="W43" s="10">
+        <v>1</v>
+      </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="6"/>
       <c r="AE43" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1C</v>
       </c>
       <c r="AF43" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J44" s="5"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
       <c r="O44" s="10">
         <v>1</v>
       </c>
@@ -1493,9 +1608,7 @@
       <c r="S44" s="10">
         <v>1</v>
       </c>
-      <c r="T44" s="10">
-        <v>1</v>
-      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="10">
         <v>1</v>
       </c>
@@ -1505,11 +1618,11 @@
       <c r="Y44" s="6"/>
       <c r="AE44" t="str">
         <f t="shared" si="2"/>
-        <v>E0</v>
+        <v>FA</v>
       </c>
       <c r="AF44" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="45" spans="10:35" x14ac:dyDescent="0.4">
@@ -4224,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135F94CE-4F90-4E2C-9BA7-A72E307E0FDF}">
-  <dimension ref="J10:CH208"/>
+  <dimension ref="J10:CS208"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BO65" sqref="BO65:BO80"/>
+      <selection activeCell="J65" sqref="J65:Y80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5096,7 +5209,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="65" spans="10:79" x14ac:dyDescent="0.4">
+    <row r="65" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J65" s="2"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -5161,8 +5274,24 @@
       <c r="BY65" s="3"/>
       <c r="BZ65" s="3"/>
       <c r="CA65" s="4"/>
-    </row>
-    <row r="66" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD65" s="2"/>
+      <c r="CE65" s="3"/>
+      <c r="CF65" s="3"/>
+      <c r="CG65" s="3"/>
+      <c r="CH65" s="3"/>
+      <c r="CI65" s="3"/>
+      <c r="CJ65" s="3"/>
+      <c r="CK65" s="3"/>
+      <c r="CL65" s="3"/>
+      <c r="CM65" s="3"/>
+      <c r="CN65" s="3"/>
+      <c r="CO65" s="3"/>
+      <c r="CP65" s="3"/>
+      <c r="CQ65" s="3"/>
+      <c r="CR65" s="3"/>
+      <c r="CS65" s="4"/>
+    </row>
+    <row r="66" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J66" s="5"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -5247,8 +5376,24 @@
       <c r="BY66" s="1"/>
       <c r="BZ66" s="1"/>
       <c r="CA66" s="6"/>
-    </row>
-    <row r="67" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD66" s="5"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="6"/>
+    </row>
+    <row r="67" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J67" s="5"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -5335,8 +5480,24 @@
       </c>
       <c r="BZ67" s="1"/>
       <c r="CA67" s="6"/>
-    </row>
-    <row r="68" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD67" s="5"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="6"/>
+    </row>
+    <row r="68" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J68" s="5"/>
       <c r="K68" s="1"/>
       <c r="L68" s="10">
@@ -5427,8 +5588,26 @@
       </c>
       <c r="BZ68" s="1"/>
       <c r="CA68" s="6"/>
-    </row>
-    <row r="69" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD68" s="5"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="6"/>
+    </row>
+    <row r="69" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J69" s="5"/>
       <c r="K69" s="1"/>
       <c r="L69" s="10">
@@ -5519,8 +5698,30 @@
       </c>
       <c r="BZ69" s="1"/>
       <c r="CA69" s="6"/>
-    </row>
-    <row r="70" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD69" s="5"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="10">
+        <v>1</v>
+      </c>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="10">
+        <v>1</v>
+      </c>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="6"/>
+    </row>
+    <row r="70" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J70" s="5"/>
       <c r="K70" s="10">
         <v>1</v>
@@ -5613,8 +5814,34 @@
       </c>
       <c r="BZ70" s="1"/>
       <c r="CA70" s="6"/>
-    </row>
-    <row r="71" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD70" s="5"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="10">
+        <v>1</v>
+      </c>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="10">
+        <v>1</v>
+      </c>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="10">
+        <v>1</v>
+      </c>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="6"/>
+    </row>
+    <row r="71" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J71" s="5"/>
       <c r="K71" s="10">
         <v>1</v>
@@ -5709,8 +5936,34 @@
       </c>
       <c r="BZ71" s="1"/>
       <c r="CA71" s="6"/>
-    </row>
-    <row r="72" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD71" s="5"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="10">
+        <v>1</v>
+      </c>
+      <c r="CJ71" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="10">
+        <v>1</v>
+      </c>
+      <c r="CP71" s="10">
+        <v>1</v>
+      </c>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="6"/>
+    </row>
+    <row r="72" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J72" s="5"/>
       <c r="K72" s="10">
         <v>1</v>
@@ -5795,8 +6048,28 @@
       </c>
       <c r="BZ72" s="1"/>
       <c r="CA72" s="6"/>
-    </row>
-    <row r="73" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD72" s="5"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="10">
+        <v>1</v>
+      </c>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="6"/>
+    </row>
+    <row r="73" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J73" s="5"/>
       <c r="K73" s="10">
         <v>1</v>
@@ -5881,8 +6154,30 @@
       </c>
       <c r="BZ73" s="1"/>
       <c r="CA73" s="6"/>
-    </row>
-    <row r="74" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD73" s="5"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CL73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="6"/>
+    </row>
+    <row r="74" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J74" s="5"/>
       <c r="K74" s="1"/>
       <c r="L74" s="10">
@@ -5973,8 +6268,26 @@
       </c>
       <c r="BZ74" s="1"/>
       <c r="CA74" s="6"/>
-    </row>
-    <row r="75" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD74" s="5"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="6"/>
+    </row>
+    <row r="75" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J75" s="5"/>
       <c r="K75" s="1"/>
       <c r="L75" s="10">
@@ -6063,8 +6376,28 @@
       </c>
       <c r="BZ75" s="1"/>
       <c r="CA75" s="6"/>
-    </row>
-    <row r="76" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD75" s="5"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="10">
+        <v>1</v>
+      </c>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="6"/>
+    </row>
+    <row r="76" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J76" s="5"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -6155,8 +6488,36 @@
       </c>
       <c r="BZ76" s="1"/>
       <c r="CA76" s="6"/>
-    </row>
-    <row r="77" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD76" s="5"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CL76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CN76" s="10">
+        <v>1</v>
+      </c>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="6"/>
+    </row>
+    <row r="77" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J77" s="5"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -6237,8 +6598,26 @@
       <c r="BY77" s="1"/>
       <c r="BZ77" s="1"/>
       <c r="CA77" s="6"/>
-    </row>
-    <row r="78" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD77" s="5"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="10">
+        <v>1</v>
+      </c>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="6"/>
+    </row>
+    <row r="78" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J78" s="5"/>
       <c r="K78" s="1"/>
       <c r="L78" s="10">
@@ -6331,8 +6710,26 @@
       <c r="BY78" s="1"/>
       <c r="BZ78" s="1"/>
       <c r="CA78" s="6"/>
-    </row>
-    <row r="79" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD78" s="5"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="10">
+        <v>1</v>
+      </c>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="6"/>
+    </row>
+    <row r="79" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J79" s="5"/>
       <c r="K79" s="10">
         <v>1</v>
@@ -6439,8 +6836,38 @@
       <c r="BY79" s="1"/>
       <c r="BZ79" s="1"/>
       <c r="CA79" s="6"/>
-    </row>
-    <row r="80" spans="10:79" x14ac:dyDescent="0.4">
+      <c r="CD79" s="5"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CJ79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CL79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CN79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CO79" s="10">
+        <v>1</v>
+      </c>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="6"/>
+    </row>
+    <row r="80" spans="10:97" x14ac:dyDescent="0.4">
       <c r="J80" s="7"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -6505,6 +6932,22 @@
       <c r="BY80" s="8"/>
       <c r="BZ80" s="8"/>
       <c r="CA80" s="9"/>
+      <c r="CD80" s="7"/>
+      <c r="CE80" s="8"/>
+      <c r="CF80" s="8"/>
+      <c r="CG80" s="8"/>
+      <c r="CH80" s="8"/>
+      <c r="CI80" s="8"/>
+      <c r="CJ80" s="8"/>
+      <c r="CK80" s="8"/>
+      <c r="CL80" s="8"/>
+      <c r="CM80" s="8"/>
+      <c r="CN80" s="8"/>
+      <c r="CO80" s="8"/>
+      <c r="CP80" s="8"/>
+      <c r="CQ80" s="8"/>
+      <c r="CR80" s="8"/>
+      <c r="CS80" s="9"/>
     </row>
     <row r="83" spans="10:86" x14ac:dyDescent="0.4">
       <c r="J83" s="2"/>

--- a/ICON16x16.xlsx
+++ b/ICON16x16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\work\Sipeed_Longan_Nano_Projects\gd32v_i2s_dac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BAFC4D-B939-434F-BE7C-F5B2C9A30426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E7CE07-08CC-4875-BED2-928CAD87FE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="345" windowWidth="25110" windowHeight="15255" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
+    <workbookView xWindow="450" yWindow="225" windowWidth="28350" windowHeight="15255" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="J12:AI135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="AI12" t="str">
         <f>"0x"&amp;AE12&amp;",0x"&amp;AF12&amp;",0x"&amp;AE13&amp;",0x"&amp;AF13&amp;",0x"&amp;AE14&amp;",0x"&amp;AF14&amp;",0x"&amp;AE15&amp;",0x"&amp;AF15&amp;",0x"&amp;AE16&amp;",0x"&amp;AF16&amp;",0x"&amp;AE17&amp;",0x"&amp;AF17&amp;",0x"&amp;AE18&amp;",0x"&amp;AF18&amp;",0x"&amp;AE19&amp;",0x"&amp;AF19</f>
-        <v>0x00,0x00,0x80,0x00,0x80,0x01,0x80,0x07,0x80,0x0F,0x80,0x1F,0x80,0x18,0x80,0x10</v>
+        <v>0x00,0x00,0x80,0x00,0x80,0x01,0x80,0x07,0x80,0x0F,0x80,0x1E,0x80,0x18,0x80,0x10</v>
       </c>
     </row>
     <row r="13" spans="10:35" x14ac:dyDescent="0.4">
@@ -565,6 +565,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="6"/>
       <c r="AE13" t="str">
@@ -691,9 +692,7 @@
       <c r="Q17" s="10">
         <v>1</v>
       </c>
-      <c r="R17" s="10">
-        <v>1</v>
-      </c>
+      <c r="R17" s="1"/>
       <c r="S17" s="10">
         <v>1</v>
       </c>
@@ -715,7 +714,7 @@
       </c>
       <c r="AF17" t="str">
         <f t="shared" si="1"/>
-        <v>1F</v>
+        <v>1E</v>
       </c>
     </row>
     <row r="18" spans="10:35" x14ac:dyDescent="0.4">
